--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/lane_frasier_nrg_com/Documents/Desktop/PowerAutomate/DE Scraping Bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/lane_frasier_nrg_com/Documents/Desktop/Code/DE Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="57" documentId="8_{2D4224B6-95C3-42F6-B08E-1CCB056F6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6466FE8-CBB1-4AE1-BC4E-AEFD14E9A269}"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4A0A5D-FA6E-45D6-863B-848576A2CEC8}">
   <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/lane_frasier_nrg_com/Documents/Desktop/Code/DE Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{2D4224B6-95C3-42F6-B08E-1CCB056F6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6466FE8-CBB1-4AE1-BC4E-AEFD14E9A269}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{2D4224B6-95C3-42F6-B08E-1CCB056F6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690788FA-5D47-4D22-8806-4BB13F6A2693}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBB796C3-9A12-42C3-98A3-9FB5C697F63C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBB796C3-9A12-42C3-98A3-9FB5C697F63C}"/>
   </bookViews>
   <sheets>
     <sheet name="COM_QC" sheetId="1" r:id="rId1"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4A0A5D-FA6E-45D6-863B-848576A2CEC8}">
   <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,15 +3638,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AED5ADEF4884224DA8914FB0475DE853" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="701744de0e8ed2961c80e29ededceb3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19fcfc1-8137-4db5-a90c-ac28935a725d" xmlns:ns3="0332c633-b15f-4523-a1c1-e6b0693ab45d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f4a10b9fdf72809d940c9d786979b40" ns2:_="" ns3:_="">
     <xsd:import namespace="e19fcfc1-8137-4db5-a90c-ac28935a725d"/>
@@ -3889,15 +3880,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94AB080-8EA9-4847-9869-C8A1586ABE2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E80CA46-D063-47C8-83B2-19645D55CCCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3914,4 +3906,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94AB080-8EA9-4847-9869-C8A1586ABE2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>